--- a/data/Manual Labels.xlsx
+++ b/data/Manual Labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/dananday_purdue_edu/Documents/Dharun HW/Grad_School/Research/Duality/Fall23/SCORED23 Artifact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/singlat_purdue_edu/Documents/Desktop/Purdue academics/Research s23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB100A0-5DE0-4FC9-9706-0A6AACB9944A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{FBB100A0-5DE0-4FC9-9706-0A6AACB9944A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74CF4584-664E-4715-9ACE-4D48EBF2B2AF}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{D88AAF5D-37EF-4EFC-A896-1739B9216AC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D88AAF5D-37EF-4EFC-A896-1739B9216AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="G1 R1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="95">
   <si>
     <t>Impacts</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>kappa</t>
-  </si>
-  <si>
-    <t>9ik</t>
   </si>
   <si>
     <t>exploit-insider</t>
@@ -334,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -478,11 +475,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -490,13 +484,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CEC89DDD-99C7-4FD7-A861-6FC9D4B11F23}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A98BD15E-0904-40B2-A895-D9A940F5E678}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -811,13 +810,13 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.29296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="12.52734375" style="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
@@ -1265,7 +1264,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="13">
+    <row r="24" spans="2:11" ht="12.75">
       <c r="B24" s="2">
         <v>1</v>
       </c>
@@ -1311,10 +1310,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.29296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="12.52734375" style="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
@@ -1726,13 +1725,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.8203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.9375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.52734375" style="1"/>
-    <col min="8" max="8" width="7.703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.52734375" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="7" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="7.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
@@ -2145,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13">
+    <row r="14" spans="1:19" ht="12.75">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
         <v>3</v>
@@ -2159,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13">
+    <row r="16" spans="1:19" ht="12.75">
       <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
@@ -2188,13 +2187,13 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.29296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="12.52734375" style="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
@@ -2608,9 +2607,7 @@
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B21" s="2">
-        <v>42</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,128 +2622,128 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B16"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.29296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="12.52734375" style="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="22" t="s">
         <v>86</v>
       </c>
+      <c r="J1" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="20">
-        <v>2</v>
-      </c>
-      <c r="C2" s="20">
-        <v>2</v>
-      </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="20">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20">
-        <v>1</v>
-      </c>
-      <c r="H2" s="20">
-        <v>1</v>
-      </c>
-      <c r="I2" s="20">
-        <v>1</v>
-      </c>
-      <c r="K2" s="20">
-        <v>1</v>
-      </c>
-      <c r="L2" s="21">
-        <v>1</v>
-      </c>
-      <c r="M2" s="20">
-        <v>1</v>
-      </c>
-      <c r="N2" s="20">
-        <v>1</v>
-      </c>
-      <c r="O2" s="20">
-        <v>1</v>
-      </c>
-      <c r="P2" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>1</v>
-      </c>
-      <c r="R2" s="20">
-        <v>1</v>
-      </c>
-      <c r="S2" s="20">
-        <v>1</v>
-      </c>
-      <c r="T2" s="20">
+      <c r="B2" s="17">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2" s="17">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
+      <c r="O2" s="17">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>1</v>
+      </c>
+      <c r="R2" s="17">
+        <v>1</v>
+      </c>
+      <c r="S2" s="17">
+        <v>1</v>
+      </c>
+      <c r="T2" s="17">
         <v>1</v>
       </c>
     </row>
@@ -2817,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>68</v>
@@ -3109,7 +3106,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
     </row>
@@ -3144,187 +3141,185 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="G18" s="7"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="G19" s="7"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="G20" s="7"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.35">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="G22" s="2"/>
-      <c r="P22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14.35">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="7"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="14.35">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="7"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="14.35">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="14.35">
+    <row r="26" spans="1:16" ht="15">
       <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.35">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:16" ht="15">
       <c r="A27" s="7"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:16" ht="13"/>
-    <row r="29" spans="1:16" ht="14.35">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:16" ht="12.75"/>
+    <row r="29" spans="1:16" ht="15">
       <c r="A29" s="7"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.35">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" ht="15">
       <c r="A30" s="7"/>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.35">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:16" ht="15">
       <c r="A31" s="7"/>
-      <c r="B31" s="18"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.35">
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:16" ht="15">
       <c r="A32" s="7"/>
-      <c r="B32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.35">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="7"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="14.35">
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" s="7"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.35">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="7"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.35">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="7"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.35">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="7"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.35">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="7"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.35">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="7"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.35">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="7"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.35">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="7"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" ht="14.35">
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" ht="13">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.35">
+    <row r="42" spans="1:4" ht="15">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="12.75">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="7"/>
-      <c r="B44" s="18"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.35">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="7"/>
-      <c r="B45" s="18"/>
-    </row>
-    <row r="48" spans="1:4" ht="13"/>
-    <row r="49" ht="13"/>
-    <row r="50" ht="13"/>
-    <row r="51" ht="13"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://dev.to/jagracey/hacking-github-s-auth-with-unicode-s-turkish-dotless-i-460n" xr:uid="{D02B88AC-FBFB-4477-A25C-3AEFA7CED307}"/>
@@ -3362,70 +3357,70 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.52734375" style="1"/>
-    <col min="2" max="2" width="12.8203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.52734375" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="22" t="s">
         <v>86</v>
       </c>
+      <c r="J1" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
@@ -3495,49 +3490,49 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
@@ -3766,194 +3761,184 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.35">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="7"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.35">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="7"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.35">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="7"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.35">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.35">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.35">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="7"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.35">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.35">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="7"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="14.35">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="7"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.35">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="7"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.35">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="7"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.35">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="7"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.35">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" s="7"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.35">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="7"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.35">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="7"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.35">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="7"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" ht="14.35">
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.35">
+    <row r="38" spans="1:4" ht="15">
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.75">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="7"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.35">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="7"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.35">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="7"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -3962,6 +3947,16 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
